--- a/nifty_option_chain.xlsx
+++ b/nifty_option_chain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>PE_Chng_OI</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PE/CE_Chng_OI_Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -476,6 +481,9 @@
       <c r="E2" t="n">
         <v>13444</v>
       </c>
+      <c r="F2" t="n">
+        <v>-55.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -493,6 +501,9 @@
       <c r="E3" t="n">
         <v>2521</v>
       </c>
+      <c r="F3" t="n">
+        <v>-420.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -510,6 +521,9 @@
       <c r="E4" t="n">
         <v>296</v>
       </c>
+      <c r="F4" t="n">
+        <v>-3.29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -527,6 +541,7 @@
       <c r="E5" t="n">
         <v>-5</v>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -544,6 +559,7 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -561,6 +577,9 @@
       <c r="E7" t="n">
         <v>35</v>
       </c>
+      <c r="F7" t="n">
+        <v>-35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -578,6 +597,7 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -595,6 +615,9 @@
       <c r="E9" t="n">
         <v>4052</v>
       </c>
+      <c r="F9" t="n">
+        <v>-1.44</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -612,6 +635,9 @@
       <c r="E10" t="n">
         <v>1954</v>
       </c>
+      <c r="F10" t="n">
+        <v>-5.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -629,6 +655,9 @@
       <c r="E11" t="n">
         <v>3082</v>
       </c>
+      <c r="F11" t="n">
+        <v>-2.45</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -646,6 +675,9 @@
       <c r="E12" t="n">
         <v>47</v>
       </c>
+      <c r="F12" t="n">
+        <v>-4.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -663,6 +695,7 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -680,6 +713,9 @@
       <c r="E14" t="n">
         <v>615</v>
       </c>
+      <c r="F14" t="n">
+        <v>-6.91</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -697,6 +733,9 @@
       <c r="E15" t="n">
         <v>31</v>
       </c>
+      <c r="F15" t="n">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -714,6 +753,9 @@
       <c r="E16" t="n">
         <v>25068</v>
       </c>
+      <c r="F16" t="n">
+        <v>-38.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -731,6 +773,9 @@
       <c r="E17" t="n">
         <v>2318</v>
       </c>
+      <c r="F17" t="n">
+        <v>-74.77</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -748,6 +793,9 @@
       <c r="E18" t="n">
         <v>157</v>
       </c>
+      <c r="F18" t="n">
+        <v>-1.41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -765,6 +813,9 @@
       <c r="E19" t="n">
         <v>2</v>
       </c>
+      <c r="F19" t="n">
+        <v>-0.67</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -782,6 +833,7 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -799,6 +851,9 @@
       <c r="E21" t="n">
         <v>5</v>
       </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -816,6 +871,7 @@
       <c r="E22" t="n">
         <v>-20</v>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -833,6 +889,9 @@
       <c r="E23" t="n">
         <v>19436</v>
       </c>
+      <c r="F23" t="n">
+        <v>-4.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -850,6 +909,9 @@
       <c r="E24" t="n">
         <v>5151</v>
       </c>
+      <c r="F24" t="n">
+        <v>20.36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -867,6 +929,9 @@
       <c r="E25" t="n">
         <v>8809</v>
       </c>
+      <c r="F25" t="n">
+        <v>-21.59</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -884,6 +949,9 @@
       <c r="E26" t="n">
         <v>-75</v>
       </c>
+      <c r="F26" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -901,6 +969,7 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -918,6 +987,9 @@
       <c r="E28" t="n">
         <v>643</v>
       </c>
+      <c r="F28" t="n">
+        <v>-5.06</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -935,6 +1007,9 @@
       <c r="E29" t="n">
         <v>36</v>
       </c>
+      <c r="F29" t="n">
+        <v>-1.33</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -952,6 +1027,9 @@
       <c r="E30" t="n">
         <v>649</v>
       </c>
+      <c r="F30" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -969,6 +1047,9 @@
       <c r="E31" t="n">
         <v>1304</v>
       </c>
+      <c r="F31" t="n">
+        <v>-652</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -986,6 +1067,9 @@
       <c r="E32" t="n">
         <v>218</v>
       </c>
+      <c r="F32" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1003,6 +1087,9 @@
       <c r="E33" t="n">
         <v>6</v>
       </c>
+      <c r="F33" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1020,6 +1107,7 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1037,6 +1125,9 @@
       <c r="E35" t="n">
         <v>-9</v>
       </c>
+      <c r="F35" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1054,6 +1145,7 @@
       <c r="E36" t="n">
         <v>10</v>
       </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1071,6 +1163,9 @@
       <c r="E37" t="n">
         <v>2956</v>
       </c>
+      <c r="F37" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1088,6 +1183,9 @@
       <c r="E38" t="n">
         <v>5888</v>
       </c>
+      <c r="F38" t="n">
+        <v>17.07</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1105,6 +1203,9 @@
       <c r="E39" t="n">
         <v>3766</v>
       </c>
+      <c r="F39" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1122,6 +1223,9 @@
       <c r="E40" t="n">
         <v>-24</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1139,6 +1243,9 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1156,6 +1263,9 @@
       <c r="E42" t="n">
         <v>182</v>
       </c>
+      <c r="F42" t="n">
+        <v>-3.79</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1173,6 +1283,9 @@
       <c r="E43" t="n">
         <v>22</v>
       </c>
+      <c r="F43" t="n">
+        <v>-2.75</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1190,6 +1303,9 @@
       <c r="E44" t="n">
         <v>7778</v>
       </c>
+      <c r="F44" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1207,6 +1323,9 @@
       <c r="E45" t="n">
         <v>989</v>
       </c>
+      <c r="F45" t="n">
+        <v>-6.77</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1224,6 +1343,9 @@
       <c r="E46" t="n">
         <v>729</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.09</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1241,6 +1363,9 @@
       <c r="E47" t="n">
         <v>-10</v>
       </c>
+      <c r="F47" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1258,6 +1383,9 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1275,6 +1403,9 @@
       <c r="E49" t="n">
         <v>8</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.44</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1292,6 +1423,9 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1309,6 +1443,9 @@
       <c r="E51" t="n">
         <v>36400</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.61</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1326,6 +1463,9 @@
       <c r="E52" t="n">
         <v>7499</v>
       </c>
+      <c r="F52" t="n">
+        <v>-8.73</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1343,6 +1483,9 @@
       <c r="E53" t="n">
         <v>2790</v>
       </c>
+      <c r="F53" t="n">
+        <v>-0.36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1360,6 +1503,9 @@
       <c r="E54" t="n">
         <v>-3</v>
       </c>
+      <c r="F54" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1377,6 +1523,9 @@
       <c r="E55" t="n">
         <v>146</v>
       </c>
+      <c r="F55" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1394,6 +1543,9 @@
       <c r="E56" t="n">
         <v>1460</v>
       </c>
+      <c r="F56" t="n">
+        <v>5.68</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1411,6 +1563,9 @@
       <c r="E57" t="n">
         <v>420</v>
       </c>
+      <c r="F57" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1428,6 +1583,9 @@
       <c r="E58" t="n">
         <v>767.6666666666666</v>
       </c>
+      <c r="F58" t="n">
+        <v>8.93</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1445,6 +1603,9 @@
       <c r="E59" t="n">
         <v>294</v>
       </c>
+      <c r="F59" t="n">
+        <v>26.73</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1462,6 +1623,7 @@
       <c r="E60" t="n">
         <v>24</v>
       </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1479,6 +1641,9 @@
       <c r="E61" t="n">
         <v>78</v>
       </c>
+      <c r="F61" t="n">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1496,6 +1661,7 @@
       <c r="E62" t="n">
         <v>4</v>
       </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1513,6 +1679,9 @@
       <c r="E63" t="n">
         <v>61924</v>
       </c>
+      <c r="F63" t="n">
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1530,6 +1699,9 @@
       <c r="E64" t="n">
         <v>1880</v>
       </c>
+      <c r="F64" t="n">
+        <v>-5.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1547,6 +1719,9 @@
       <c r="E65" t="n">
         <v>1959</v>
       </c>
+      <c r="F65" t="n">
+        <v>-59.36</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1564,6 +1739,9 @@
       <c r="E66" t="n">
         <v>12</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.48</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1581,6 +1759,7 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1598,6 +1777,9 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
+      <c r="F68" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1615,6 +1797,7 @@
       <c r="E69" t="n">
         <v>1</v>
       </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1632,6 +1815,9 @@
       <c r="E70" t="n">
         <v>127489</v>
       </c>
+      <c r="F70" t="n">
+        <v>10.81</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1649,6 +1835,9 @@
       <c r="E71" t="n">
         <v>7646</v>
       </c>
+      <c r="F71" t="n">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1666,6 +1855,9 @@
       <c r="E72" t="n">
         <v>6117</v>
       </c>
+      <c r="F72" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1683,6 +1875,7 @@
       <c r="E73" t="n">
         <v>65</v>
       </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1700,6 +1893,9 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1717,6 +1913,9 @@
       <c r="E75" t="n">
         <v>562</v>
       </c>
+      <c r="F75" t="n">
+        <v>9.369999999999999</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1734,6 +1933,9 @@
       <c r="E76" t="n">
         <v>33</v>
       </c>
+      <c r="F76" t="n">
+        <v>-16.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1751,6 +1953,9 @@
       <c r="E77" t="n">
         <v>42681</v>
       </c>
+      <c r="F77" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1768,6 +1973,9 @@
       <c r="E78" t="n">
         <v>2212</v>
       </c>
+      <c r="F78" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1785,6 +1993,9 @@
       <c r="E79" t="n">
         <v>924</v>
       </c>
+      <c r="F79" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1802,6 +2013,9 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1819,6 +2033,9 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1836,6 +2053,9 @@
       <c r="E82" t="n">
         <v>23</v>
       </c>
+      <c r="F82" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1853,6 +2073,7 @@
       <c r="E83" t="n">
         <v>3</v>
       </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1870,6 +2091,9 @@
       <c r="E84" t="n">
         <v>29592</v>
       </c>
+      <c r="F84" t="n">
+        <v>2.97</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1887,6 +2111,9 @@
       <c r="E85" t="n">
         <v>7248</v>
       </c>
+      <c r="F85" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1904,6 +2131,9 @@
       <c r="E86" t="n">
         <v>7475</v>
       </c>
+      <c r="F86" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1921,6 +2151,9 @@
       <c r="E87" t="n">
         <v>158</v>
       </c>
+      <c r="F87" t="n">
+        <v>4.39</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1938,6 +2171,9 @@
       <c r="E88" t="n">
         <v>5</v>
       </c>
+      <c r="F88" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1955,6 +2191,9 @@
       <c r="E89" t="n">
         <v>553</v>
       </c>
+      <c r="F89" t="n">
+        <v>4.39</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1972,6 +2211,9 @@
       <c r="E90" t="n">
         <v>-9</v>
       </c>
+      <c r="F90" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1989,6 +2231,9 @@
       <c r="E91" t="n">
         <v>6465</v>
       </c>
+      <c r="F91" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2006,6 +2251,9 @@
       <c r="E92" t="n">
         <v>848</v>
       </c>
+      <c r="F92" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2023,6 +2271,9 @@
       <c r="E93" t="n">
         <v>264</v>
       </c>
+      <c r="F93" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2040,6 +2291,9 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2057,6 +2311,7 @@
       <c r="E95" t="n">
         <v>0</v>
       </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2074,6 +2329,9 @@
       <c r="E96" t="n">
         <v>-16</v>
       </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2091,6 +2349,7 @@
       <c r="E97" t="n">
         <v>0</v>
       </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2108,6 +2367,9 @@
       <c r="E98" t="n">
         <v>10680</v>
       </c>
+      <c r="F98" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2125,6 +2387,9 @@
       <c r="E99" t="n">
         <v>1488</v>
       </c>
+      <c r="F99" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2142,6 +2407,9 @@
       <c r="E100" t="n">
         <v>2038</v>
       </c>
+      <c r="F100" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2159,6 +2427,7 @@
       <c r="E101" t="n">
         <v>0</v>
       </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2176,6 +2445,7 @@
       <c r="E102" t="n">
         <v>0</v>
       </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2193,6 +2463,9 @@
       <c r="E103" t="n">
         <v>388</v>
       </c>
+      <c r="F103" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2210,6 +2483,9 @@
       <c r="E104" t="n">
         <v>52</v>
       </c>
+      <c r="F104" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2227,6 +2503,9 @@
       <c r="E105" t="n">
         <v>870</v>
       </c>
+      <c r="F105" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2244,6 +2523,9 @@
       <c r="E106" t="n">
         <v>257</v>
       </c>
+      <c r="F106" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2261,6 +2543,9 @@
       <c r="E107" t="n">
         <v>48</v>
       </c>
+      <c r="F107" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2278,6 +2563,7 @@
       <c r="E108" t="n">
         <v>0</v>
       </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2295,6 +2581,7 @@
       <c r="E109" t="n">
         <v>0</v>
       </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2312,6 +2599,9 @@
       <c r="E110" t="n">
         <v>21</v>
       </c>
+      <c r="F110" t="n">
+        <v>-1.17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2329,6 +2619,7 @@
       <c r="E111" t="n">
         <v>0</v>
       </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2346,6 +2637,9 @@
       <c r="E112" t="n">
         <v>425</v>
       </c>
+      <c r="F112" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2363,6 +2657,9 @@
       <c r="E113" t="n">
         <v>561</v>
       </c>
+      <c r="F113" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2380,6 +2677,9 @@
       <c r="E114" t="n">
         <v>371</v>
       </c>
+      <c r="F114" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2397,6 +2697,9 @@
       <c r="E115" t="n">
         <v>0</v>
       </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2414,6 +2717,9 @@
       <c r="E116" t="n">
         <v>0</v>
       </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2431,6 +2737,9 @@
       <c r="E117" t="n">
         <v>165</v>
       </c>
+      <c r="F117" t="n">
+        <v>-4.12</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2448,6 +2757,9 @@
       <c r="E118" t="n">
         <v>8</v>
       </c>
+      <c r="F118" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2465,6 +2777,9 @@
       <c r="E119" t="n">
         <v>531</v>
       </c>
+      <c r="F119" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2482,6 +2797,9 @@
       <c r="E120" t="n">
         <v>175</v>
       </c>
+      <c r="F120" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2499,6 +2817,9 @@
       <c r="E121" t="n">
         <v>38</v>
       </c>
+      <c r="F121" t="n">
+        <v>-0.9</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2516,6 +2837,7 @@
       <c r="E122" t="n">
         <v>0</v>
       </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2533,6 +2855,7 @@
       <c r="E123" t="n">
         <v>0</v>
       </c>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2550,6 +2873,9 @@
       <c r="E124" t="n">
         <v>5</v>
       </c>
+      <c r="F124" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2567,6 +2893,7 @@
       <c r="E125" t="n">
         <v>0</v>
       </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2584,6 +2911,9 @@
       <c r="E126" t="n">
         <v>1076</v>
       </c>
+      <c r="F126" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2601,6 +2931,9 @@
       <c r="E127" t="n">
         <v>1791</v>
       </c>
+      <c r="F127" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2618,6 +2951,9 @@
       <c r="E128" t="n">
         <v>-109</v>
       </c>
+      <c r="F128" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2635,6 +2971,9 @@
       <c r="E129" t="n">
         <v>12</v>
       </c>
+      <c r="F129" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2652,6 +2991,9 @@
       <c r="E130" t="n">
         <v>6</v>
       </c>
+      <c r="F130" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2669,6 +3011,9 @@
       <c r="E131" t="n">
         <v>892</v>
       </c>
+      <c r="F131" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2686,6 +3031,9 @@
       <c r="E132" t="n">
         <v>1019</v>
       </c>
+      <c r="F132" t="n">
+        <v>3.68</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2703,6 +3051,9 @@
       <c r="E133" t="n">
         <v>61</v>
       </c>
+      <c r="F133" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2720,6 +3071,9 @@
       <c r="E134" t="n">
         <v>12</v>
       </c>
+      <c r="F134" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2737,6 +3091,9 @@
       <c r="E135" t="n">
         <v>23</v>
       </c>
+      <c r="F135" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2754,6 +3111,7 @@
       <c r="E136" t="n">
         <v>0</v>
       </c>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2771,6 +3129,9 @@
       <c r="E137" t="n">
         <v>17</v>
       </c>
+      <c r="F137" t="n">
+        <v>-1.13</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2788,6 +3149,9 @@
       <c r="E138" t="n">
         <v>0</v>
       </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2805,6 +3169,9 @@
       <c r="E139" t="n">
         <v>51</v>
       </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2822,6 +3189,9 @@
       <c r="E140" t="n">
         <v>800</v>
       </c>
+      <c r="F140" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2839,6 +3209,9 @@
       <c r="E141" t="n">
         <v>318</v>
       </c>
+      <c r="F141" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2856,6 +3229,7 @@
       <c r="E142" t="n">
         <v>0</v>
       </c>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2873,6 +3247,9 @@
       <c r="E143" t="n">
         <v>167</v>
       </c>
+      <c r="F143" t="n">
+        <v>11.93</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2889,6 +3266,9 @@
       </c>
       <c r="E144" t="n">
         <v>50</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/nifty_option_chain.xlsx
+++ b/nifty_option_chain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,122 +436,149 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Strike Price</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>CE_OI</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CE_Chng_OI</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PE_OI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PE_Chng_OI</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PE/CE_Chng_OI_Ratio</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>24850</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>7504</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-3573</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>63684</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>649</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>24850</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>1097</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>4409</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1304</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-652</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>24850</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>1377</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-446</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3739</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>218</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.49</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>24850</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>27</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>24850</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
@@ -561,138 +588,173 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>24850</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>83</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>158</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-9</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>24850</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>40</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>10</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>24900</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>23079</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-13665</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>143439</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2956</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.22</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>24900</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>3285</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>345</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>12008</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>5888</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>17.07</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>24900</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>20921</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>801</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>30975</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3766</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>24900</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>107</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-30</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>142</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-24</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>24900</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -700,510 +762,640 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>24900</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>1051</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-48</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>2057</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>182</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-3.79</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>24900</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>153</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-8</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>84</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>22</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-2.75</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>24950</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>12507</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-13047</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>100437</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>7778</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-0.6</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>24950</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>1059</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-146</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>3776</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>989</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-6.77</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>24950</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>2026</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-669</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>3805</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>729</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-1.09</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>24950</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>15</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>-7</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>95</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-10</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.43</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>24950</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>6</v>
       </c>
       <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>24950</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>92</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>-18</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>225</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>8</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>-0.44</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>24950</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>11</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>-7</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>37</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>-0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>25000</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>72048</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>-59281</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>238047</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>36400</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-0.61</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>25000</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>14814</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>-859</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>26230</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>7499</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>-8.73</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>25000</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>61922</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>-7701</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>64391</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>2790</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>-0.36</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>25000</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>612</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>-80</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>761</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>-3</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>25000</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>256</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>78</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>469</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>146</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1.87</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>25000</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>16361</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>257</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>19019</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1460</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>5.68</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>25000</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>5674</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>199</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>4227</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>420</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>2.11</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>25000</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>23641</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>86</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>44678.33333333334</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>767.6666666666666</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>8.93</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>25000</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>2815</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>11</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>5966</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>294</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>26.73</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>25000</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>19</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>448</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>24</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>25000</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>665.6666666666666</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>5</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>1517.666666666667</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>78</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>15.6</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>25000</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>2</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>22</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>25050</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>28936</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>-36697</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>102242</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>61924</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>-1.69</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
         <v>25050</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>2034</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>-342</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>4565</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>1880</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>-5.5</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>25050</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>2396</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>-33</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>3420</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>1959</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>-59.36</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>25050</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>55</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>-25</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>13</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>12</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>-0.48</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>25050</v>
       </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
@@ -1213,276 +1405,346 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>25050</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>132</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>-45</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>159</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>-0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>25050</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>3</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>6</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>25100</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>109682</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>11792</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>165077</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>127489</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>10.81</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>25100</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>13424</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>2756</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>12617</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>7646</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>25100</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>26137</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>3499</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>19482</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>6117</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>1.75</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
         <v>25100</v>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>168</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>186</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>65</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
         <v>25100</v>
-      </c>
-      <c r="B46" t="n">
-        <v>17</v>
       </c>
       <c r="C46" t="n">
         <v>17</v>
       </c>
       <c r="D46" t="n">
+        <v>17</v>
+      </c>
+      <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
         <v>25100</v>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>1621</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>60</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>1868</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>562</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>9.369999999999999</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
         <v>25100</v>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>59</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>-2</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>111</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>33</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>-16.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>25150</v>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>82029</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>31881</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>50741</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>42681</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
         <v>25150</v>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>3979</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>1679</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>2854</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>2212</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>25150</v>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>3656</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>565</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>1942</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>924</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>1.64</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
         <v>25150</v>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>68</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>64</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
         <v>25150</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1490,272 +1752,342 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
         <v>25150</v>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>313</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>-739</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>96</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>23</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>-0.03</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
         <v>25150</v>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>10</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
       <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>18</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>3</v>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
         <v>25200</v>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>133241</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>9965</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>45878</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>29592</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>2.97</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
         <v>25200</v>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>17091</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>3691</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>9225</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>7248</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>1.96</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>25200</v>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>31093</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>3383</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>16255</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>7475</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>2.21</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
         <v>25200</v>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>263</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>36</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>266</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>158</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>4.39</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
         <v>25200</v>
-      </c>
-      <c r="B60" t="n">
-        <v>9</v>
       </c>
       <c r="C60" t="n">
         <v>9</v>
       </c>
       <c r="D60" t="n">
+        <v>9</v>
+      </c>
+      <c r="E60" t="n">
         <v>6</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>5</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
         <v>25200</v>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>2263</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>126</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>2905</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>553</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>4.39</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
         <v>25200</v>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>206</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>66</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>135</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>-9</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>-0.14</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
         <v>25250</v>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>60543</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>13537</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>8576</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>6465</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
         <v>25250</v>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>5337</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>3287</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>1139</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>848</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
         <v>25250</v>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>3280</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>323</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>822</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>264</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.82</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
         <v>25250</v>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>72</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>20</v>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
         <v>25250</v>
       </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
@@ -1765,113 +2097,143 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
         <v>25250</v>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>136</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>-8</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>116</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>-16</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
         <v>25250</v>
       </c>
-      <c r="B69" t="n">
+      <c r="C69" t="n">
         <v>13</v>
       </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
       <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>15</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
         <v>25300</v>
       </c>
-      <c r="B70" t="n">
+      <c r="C70" t="n">
         <v>119541</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>28826</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>15585</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>10680</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>0.37</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
         <v>25300</v>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>13358</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>4632</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>2731</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>1488</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
         <v>25300</v>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>22550</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>1454</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>5876</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>2038</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>25300</v>
       </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
@@ -1881,15 +2243,20 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
         <v>25300</v>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
@@ -1899,115 +2266,145 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
         <v>25300</v>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>2462</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>225</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>1090</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>388</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>1.72</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
         <v>25300</v>
       </c>
-      <c r="B76" t="n">
+      <c r="C76" t="n">
         <v>253</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>18</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>169</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>52</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>2.89</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
         <v>25350</v>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>73063</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>28887</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>1661</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>870</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
         <v>25350</v>
       </c>
-      <c r="B78" t="n">
+      <c r="C78" t="n">
         <v>3028</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>1096</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>490</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>257</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
         <v>25350</v>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>1818</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>-171</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>575</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>48</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>-0.28</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
         <v>25350</v>
       </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
@@ -2017,15 +2414,20 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
         <v>25350</v>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
@@ -2035,35 +2437,45 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
         <v>25350</v>
       </c>
-      <c r="B82" t="n">
+      <c r="C82" t="n">
         <v>105</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>-18</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>45</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>21</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>-1.17</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
         <v>25350</v>
       </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
@@ -2073,100 +2485,125 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
         <v>25400</v>
       </c>
-      <c r="B84" t="n">
+      <c r="C84" t="n">
         <v>84409</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>-8700</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>3302</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>425</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.05</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
         <v>25400</v>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>15075</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>8882</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>1247</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>561</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
         <v>25400</v>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>17183</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>-2975</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>5327</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>371</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>-0.12</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
         <v>25400</v>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>266</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>27</v>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
         <v>25400</v>
-      </c>
-      <c r="B88" t="n">
-        <v>6</v>
       </c>
       <c r="C88" t="n">
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -2174,44 +2611,57 @@
       <c r="F88" t="n">
         <v>0</v>
       </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
         <v>25400</v>
       </c>
-      <c r="B89" t="n">
+      <c r="C89" t="n">
         <v>1254</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>-40</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>556</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>165</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>-4.12</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
         <v>25400</v>
       </c>
-      <c r="B90" t="n">
+      <c r="C90" t="n">
         <v>134</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>21</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>137</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>8</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.38</v>
       </c>
     </row>
